--- a/tables/table_accuracy.xlsx
+++ b/tables/table_accuracy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24302"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D75EA220-2E83-46D2-91ED-F43ADE517649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AA7523D-64CF-49AD-870D-F58833F4FF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -300,18 +300,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -323,9 +314,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -363,14 +351,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,7 +709,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="C1" sqref="C1:AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -763,228 +781,228 @@
       <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28" ht="17.25" customHeight="1">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18">
+      <c r="D2" s="47"/>
+      <c r="E2" s="16">
         <v>4</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19">
+      <c r="F2" s="17"/>
+      <c r="G2" s="39">
         <v>8</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19">
+      <c r="H2" s="39"/>
+      <c r="I2" s="17">
         <v>16</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19">
+      <c r="J2" s="17"/>
+      <c r="K2" s="39">
         <v>64</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18">
+      <c r="L2" s="39"/>
+      <c r="M2" s="16">
         <v>4</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19">
+      <c r="N2" s="17"/>
+      <c r="O2" s="39">
         <v>8</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19">
+      <c r="P2" s="39"/>
+      <c r="Q2" s="17">
         <v>16</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19">
+      <c r="R2" s="17"/>
+      <c r="S2" s="39">
         <v>64</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="18">
+      <c r="T2" s="39"/>
+      <c r="U2" s="16">
         <v>4</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19">
+      <c r="V2" s="17"/>
+      <c r="W2" s="39">
         <v>8</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="17">
         <v>16</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19">
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="39">
         <v>64</v>
       </c>
-      <c r="AB2" s="20"/>
+      <c r="AB2" s="42"/>
     </row>
     <row r="3" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="U3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="V3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="W3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="23" t="s">
+      <c r="X3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="23" t="s">
+      <c r="Z3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="23" t="s">
+      <c r="AA3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="24" t="s">
+      <c r="AB3" s="43" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="U4" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="W4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="X4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB4" s="40" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="44" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A5" s="27">
+      <c r="A5" s="23">
         <v>0</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4">
@@ -1067,8 +1085,8 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4">
@@ -1151,8 +1169,8 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4">
@@ -1235,8 +1253,8 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="4">
@@ -1319,94 +1337,94 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A9" s="27">
+      <c r="A9" s="23">
         <v>1</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="30">
         <v>9.0450044006132602E-2</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="30">
         <v>-3.1361311865470498E-3</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="31">
         <v>0.49902737000000003</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="32">
         <v>6.38695425989418E-2</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="30">
         <v>0.10939018</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="30">
         <v>1.6346080100043501E-3</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="32">
         <v>0.10321231</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="32">
         <v>9.3527973836708298E-4</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="30">
         <v>9.6370410000000004E-2</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="30">
         <v>6.6555136530864196E-4</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="31">
         <v>0.10365351</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="32">
         <v>2.02651411575288E-3</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="30">
         <v>9.8679810000000007E-2</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="30">
         <v>1.3751259021550599E-3</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="32">
         <v>9.6079520000000002E-2</v>
       </c>
-      <c r="R9" s="36">
+      <c r="R9" s="32">
         <v>8.6493033428160899E-4</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="30">
         <v>9.4316520000000001E-2</v>
       </c>
-      <c r="T9" s="34">
+      <c r="T9" s="30">
         <v>4.5405906691411101E-4</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9" s="31">
         <v>0.12330562</v>
       </c>
-      <c r="V9" s="36">
+      <c r="V9" s="32">
         <v>1.89137058043716E-3</v>
       </c>
-      <c r="W9" s="34">
+      <c r="W9" s="30">
         <v>0.10195286000000001</v>
       </c>
-      <c r="X9" s="34">
+      <c r="X9" s="30">
         <v>9.28667506872608E-4</v>
       </c>
-      <c r="Y9" s="36">
+      <c r="Y9" s="32">
         <v>0.10038664999999999</v>
       </c>
-      <c r="Z9" s="36">
+      <c r="Z9" s="32">
         <v>7.2448306240798204E-4</v>
       </c>
-      <c r="AA9" s="34">
+      <c r="AA9" s="30">
         <v>9.4860260000000002E-2</v>
       </c>
-      <c r="AB9" s="37">
+      <c r="AB9" s="33">
         <v>2.4431448171426199E-4</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5">
@@ -1489,8 +1507,8 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5">
@@ -1573,8 +1591,8 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="5">
@@ -1657,94 +1675,94 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A13" s="27">
+      <c r="A13" s="23">
         <v>3</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="30">
         <v>0.10365291050137</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="30">
         <v>-3.1361311865470498E-3</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="31">
         <v>0.59651516000000004</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="32">
         <v>6.8442042325755806E-2</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="30">
         <v>0.12093872</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="30">
         <v>2.1201369434456301E-3</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="32">
         <v>0.11312659</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="32">
         <v>1.2928187411215301E-3</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="30">
         <v>0.10978317999999999</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="30">
         <v>6.6791269478267302E-4</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="31">
         <v>0.1236725</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13" s="32">
         <v>4.4419351213432004E-3</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="30">
         <v>0.11279849</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="30">
         <v>2.7017108321132398E-3</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="32">
         <v>0.1086847</v>
       </c>
-      <c r="R13" s="36">
+      <c r="R13" s="32">
         <v>1.48491808536596E-3</v>
       </c>
-      <c r="S13" s="34">
+      <c r="S13" s="30">
         <v>0.10785783</v>
       </c>
-      <c r="T13" s="34">
+      <c r="T13" s="30">
         <v>7.6315566718594501E-4</v>
       </c>
-      <c r="U13" s="35">
+      <c r="U13" s="31">
         <v>0.13775482999999999</v>
       </c>
-      <c r="V13" s="36">
+      <c r="V13" s="32">
         <v>1.3742355534291199E-3</v>
       </c>
-      <c r="W13" s="34">
+      <c r="W13" s="30">
         <v>0.11618509</v>
       </c>
-      <c r="X13" s="34">
+      <c r="X13" s="30">
         <v>7.0932911660714004E-4</v>
       </c>
-      <c r="Y13" s="36">
+      <c r="Y13" s="32">
         <v>0.11117517</v>
       </c>
-      <c r="Z13" s="36">
+      <c r="Z13" s="32">
         <v>5.6831757489828895E-4</v>
       </c>
-      <c r="AA13" s="34">
+      <c r="AA13" s="30">
         <v>0.10515871</v>
       </c>
-      <c r="AB13" s="37">
+      <c r="AB13" s="33">
         <v>2.81087615377339E-4</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="5">
@@ -1827,8 +1845,8 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="42" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="5">
@@ -1911,8 +1929,8 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="43" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="5">
@@ -1995,94 +2013,94 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A17" s="29">
+      <c r="A17" s="25">
         <v>5</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="29">
         <v>4.3379277956413697E-3</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="30">
         <v>-3.1361311865470498E-3</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="31">
         <v>0.55948050999999999</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="32">
         <v>7.9658949453507197E-2</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="30">
         <v>1.5761359999999999E-2</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="30">
         <v>3.4570981932936298E-3</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="32">
         <v>7.7872999999999996E-3</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="32">
         <v>2.67584153528854E-3</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="30">
         <v>9.1781099999999997E-3</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="30">
         <v>2.2387734800390002E-3</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="31">
         <v>3.0747759999999999E-2</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="32">
         <v>9.5778023886407201E-3</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="30">
         <v>9.5018700000000008E-3</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="30">
         <v>3.62158872879102E-3</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="32">
         <v>1.1733479999999999E-2</v>
       </c>
-      <c r="R17" s="36">
+      <c r="R17" s="32">
         <v>5.0426718637966103E-4</v>
       </c>
-      <c r="S17" s="34">
+      <c r="S17" s="30">
         <v>9.8770899999999998E-3</v>
       </c>
-      <c r="T17" s="34">
+      <c r="T17" s="30">
         <v>4.43812143122195E-4</v>
       </c>
-      <c r="U17" s="35">
+      <c r="U17" s="31">
         <v>2.1849650000000002E-2</v>
       </c>
-      <c r="V17" s="36">
+      <c r="V17" s="32">
         <v>2.4524856919958698E-3</v>
       </c>
-      <c r="W17" s="34">
+      <c r="W17" s="30">
         <v>1.0828809999999999E-2</v>
       </c>
-      <c r="X17" s="34">
+      <c r="X17" s="30">
         <v>1.6832793312533401E-3</v>
       </c>
-      <c r="Y17" s="36">
+      <c r="Y17" s="32">
         <v>5.4119600000000004E-3</v>
       </c>
-      <c r="Z17" s="36">
+      <c r="Z17" s="32">
         <v>8.9911141706481299E-4</v>
       </c>
-      <c r="AA17" s="34">
+      <c r="AA17" s="30">
         <v>4.4994000000000002E-4</v>
       </c>
-      <c r="AB17" s="37">
+      <c r="AB17" s="33">
         <v>3.3159016322212997E-4</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4">
@@ -2165,8 +2183,8 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="4">
@@ -2249,8 +2267,8 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="17.25" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
@@ -2259,10 +2277,10 @@
       <c r="D20" s="8">
         <v>1.2804641144116301E-2</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="21">
         <v>0.79809368999999997</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="22">
         <v>0.13623467044828999</v>
       </c>
       <c r="G20" s="8">
@@ -2271,10 +2289,10 @@
       <c r="H20" s="8">
         <v>3.0738066429625999E-3</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="22">
         <v>0.55171033999999997</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="22">
         <v>2.7149203497490401E-3</v>
       </c>
       <c r="K20" s="8">
@@ -2283,10 +2301,10 @@
       <c r="L20" s="8">
         <v>5.5021088079542399E-4</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20" s="21">
         <v>0.52186080999999995</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="22">
         <v>1.01107709821723E-2</v>
       </c>
       <c r="O20" s="8">
@@ -2295,10 +2313,10 @@
       <c r="P20" s="8">
         <v>1.26127118032601E-3</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="22">
         <v>0.55455907999999998</v>
       </c>
-      <c r="R20" s="26">
+      <c r="R20" s="22">
         <v>1.5945534837512401E-3</v>
       </c>
       <c r="S20" s="8">
@@ -2307,10 +2325,10 @@
       <c r="T20" s="8">
         <v>2.5679842174070699E-3</v>
       </c>
-      <c r="U20" s="25">
+      <c r="U20" s="21">
         <v>0.51213852000000004</v>
       </c>
-      <c r="V20" s="26">
+      <c r="V20" s="22">
         <v>2.41144437557532E-3</v>
       </c>
       <c r="W20" s="8">
@@ -2319,10 +2337,10 @@
       <c r="X20" s="8">
         <v>1.0843617414331599E-3</v>
       </c>
-      <c r="Y20" s="26">
+      <c r="Y20" s="22">
         <v>0.53775139999999999</v>
       </c>
-      <c r="Z20" s="26">
+      <c r="Z20" s="22">
         <v>1.10615787645992E-3</v>
       </c>
       <c r="AA20" s="8">
@@ -2333,6 +2351,9 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="15"/>
+    <row r="23" spans="1:28">
+      <c r="F23" s="45"/>
+    </row>
     <row r="27" spans="1:28" ht="15"/>
     <row r="28" spans="1:28" ht="15"/>
   </sheetData>
